--- a/Burndown chart Sprintu 2 - Groep 2.xlsx
+++ b/Burndown chart Sprintu 2 - Groep 2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17571"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jurian\Desktop\ProjectOP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JasonTjauw\Documents\GitHub\ProjectOP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="244"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="244"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -319,7 +319,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-150"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -484,6 +484,71 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="nl-NL"/>
+                  <a:t>Time in Days</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.82482821882317936"/>
+              <c:y val="0.9024036069092457"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="nl-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -518,7 +583,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-150"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="384408584"/>
@@ -577,7 +642,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-150"/>
+            <a:endParaRPr lang="nl-NL"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="384411208"/>
@@ -594,6 +659,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.72113354587528633"/>
+          <c:y val="9.0564239077648073E-2"/>
+          <c:w val="0.20577162207443933"/>
+          <c:h val="6.4246272280878466E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -619,7 +694,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-150"/>
+          <a:endParaRPr lang="nl-NL"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -649,7 +724,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-150"/>
+      <a:endParaRPr lang="nl-NL"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -657,6 +732,7 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -1220,16 +1296,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>981074</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1646</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>10366</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>495299</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28652</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>190609</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1255,6 +1331,88 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.02635</cdr:x>
+      <cdr:y>0.10976</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.22316</cdr:x>
+      <cdr:y>0.18501</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="Tekstvak 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="177648" y="366153"/>
+          <a:ext cx="1326777" cy="251011"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.033</cdr:x>
+      <cdr:y>0.08289</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.33353</cdr:x>
+      <cdr:y>0.17157</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="Tekstvak 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="222471" y="276506"/>
+          <a:ext cx="2026023" cy="295835"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+        </a:ln>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100"/>
+            <a:t>Remaining</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="nl-NL" sz="1100" baseline="0"/>
+            <a:t> hours(Study Points)</a:t>
+          </a:r>
+          <a:endParaRPr lang="nl-NL" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1556,22 +1714,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="12.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7109375" style="1" customWidth="1"/>
-    <col min="5" max="10" width="7.5703125" style="1" customWidth="1"/>
-    <col min="11" max="11" width="56.7109375" style="1" customWidth="1"/>
-    <col min="12" max="16384" width="12.140625" style="1"/>
+    <col min="2" max="2" width="16.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.6640625" style="1" customWidth="1"/>
+    <col min="5" max="10" width="7.5546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="56.6640625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="12.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1603,7 +1761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>23</v>
       </c>
@@ -1638,7 +1796,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>23</v>
       </c>
@@ -1670,7 +1828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
@@ -1702,7 +1860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -1734,7 +1892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -1766,7 +1924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>23</v>
       </c>
@@ -1798,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>23</v>
       </c>
@@ -1830,21 +1988,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E9" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F9" s="2">
         <v>4</v>
@@ -1859,24 +2017,24 @@
         <v>3</v>
       </c>
       <c r="J9" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:11" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E10" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F10" s="2">
         <v>4</v>
@@ -1891,10 +2049,10 @@
         <v>3</v>
       </c>
       <c r="J10" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
@@ -1905,19 +2063,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12"/>
-      <c r="E12"/>
-      <c r="F12"/>
-      <c r="G12"/>
-      <c r="H12"/>
-      <c r="I12"/>
-      <c r="J12"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13"/>
       <c r="B13"/>
       <c r="C13"/>
@@ -1929,7 +2078,7 @@
       <c r="I13"/>
       <c r="J13"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>11</v>
       </c>
@@ -1956,7 +2105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
@@ -1969,7 +2118,7 @@
         <v>22</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(F2:F13)</f>
         <v>18</v>
       </c>
       <c r="G15" s="2">
@@ -1981,7 +2130,7 @@
         <v>8</v>
       </c>
       <c r="I15" s="2">
-        <f t="shared" si="0"/>
+        <f>SUM(I2:I13)</f>
         <v>6</v>
       </c>
       <c r="J15" s="2">
